--- a/Data/t4.1.xlsx
+++ b/Data/t4.1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E908D18-233A-4E15-A648-4DB56C7E64F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7D03C8-43AF-42E5-A10B-00EED9DE9F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{71C97BA0-951B-44E3-A718-ED9C119A5E8D}"/>
   </bookViews>
   <sheets>
-    <sheet name="t4.1" sheetId="1" r:id="rId1"/>
+    <sheet name="t4.1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -435,20 +435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A182479-8193-4F18-A4E7-1B0EC1E0D875}">
-  <dimension ref="A1:AA241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270A526E-8824-422D-B054-CDFBBE7B8B19}">
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
-    <col min="3" max="28" width="6.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,26 +455,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2010</v>
       </c>
@@ -494,7 +470,7 @@
         <v>0.39107827174987009</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2010</v>
       </c>
@@ -508,7 +484,7 @@
         <v>1.9133707072333799</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2010</v>
       </c>
@@ -522,7 +498,7 @@
         <v>1.9133707072333799</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2010</v>
       </c>
@@ -536,7 +512,7 @@
         <v>1.0814353508372851</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2010</v>
       </c>
@@ -550,7 +526,7 @@
         <v>1.5215071461302441</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2010</v>
       </c>
@@ -564,7 +540,7 @@
         <v>0.6003838539635632</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2010</v>
       </c>
@@ -578,7 +554,7 @@
         <v>0.318822223225326</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2010</v>
       </c>
@@ -592,7 +568,7 @@
         <v>1.1392473524435245</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2010</v>
       </c>
@@ -606,7 +582,7 @@
         <v>0.19735089591250815</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2010</v>
       </c>
@@ -620,7 +596,7 @@
         <v>0.52161833485996612</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2010</v>
       </c>
@@ -633,9 +609,8 @@
       <c r="D12" s="3">
         <v>4.2646843869104014</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2010</v>
       </c>
@@ -648,9 +623,8 @@
       <c r="D13" s="3">
         <v>20.860170070923541</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2010</v>
       </c>
@@ -663,9 +637,8 @@
       <c r="D14" s="3">
         <v>20.860170070923541</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2010</v>
       </c>
@@ -678,9 +651,8 @@
       <c r="D15" s="3">
         <v>6.3870386061174136</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2010</v>
       </c>
@@ -693,9 +665,8 @@
       <c r="D16" s="3">
         <v>9.4593988719283004</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2010</v>
       </c>
@@ -708,9 +679,8 @@
       <c r="D17" s="3">
         <v>4.2778608897934669</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2010</v>
       </c>
@@ -723,9 +693,8 @@
       <c r="D18" s="3">
         <v>2.1242559974792323</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2010</v>
       </c>
@@ -738,9 +707,8 @@
       <c r="D19" s="3">
         <v>8.8704599060020364</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2010</v>
       </c>
@@ -753,9 +721,8 @@
       <c r="D20" s="3">
         <v>4.0082745440555785</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2010</v>
       </c>
@@ -768,9 +735,8 @@
       <c r="D21" s="3">
         <v>6.5052422286070337</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2011</v>
       </c>
@@ -784,7 +750,7 @@
         <v>0.36031875364523142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2011</v>
       </c>
@@ -798,7 +764,7 @@
         <v>1.0808909148399113</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2011</v>
       </c>
@@ -812,7 +778,7 @@
         <v>1.0808909148399113</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2011</v>
       </c>
@@ -826,7 +792,7 @@
         <v>1.1025676133926963</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2011</v>
       </c>
@@ -840,7 +806,7 @@
         <v>1.5912704102073594</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2011</v>
       </c>
@@ -854,7 +820,7 @@
         <v>0.48908643268411756</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2011</v>
       </c>
@@ -868,7 +834,7 @@
         <v>0.37886023537756558</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2011</v>
       </c>
@@ -882,7 +848,7 @@
         <v>1.2671151430424725</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2011</v>
       </c>
@@ -896,7 +862,7 @@
         <v>0.27443656875399242</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2011</v>
       </c>
@@ -910,7 +876,7 @@
         <v>0.61898332377444409</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2011</v>
       </c>
@@ -924,7 +890,7 @@
         <v>3.9763415710576906</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2011</v>
       </c>
@@ -937,9 +903,8 @@
       <c r="D33" s="3">
         <v>12.914861442768844</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2011</v>
       </c>
@@ -952,9 +917,8 @@
       <c r="D34" s="3">
         <v>12.914861442768844</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2011</v>
       </c>
@@ -967,9 +931,8 @@
       <c r="D35" s="3">
         <v>6.1132678582166182</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2011</v>
       </c>
@@ -982,9 +945,8 @@
       <c r="D36" s="3">
         <v>10.087422651053474</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2011</v>
       </c>
@@ -997,9 +959,8 @@
       <c r="D37" s="3">
         <v>3.9249426697951288</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2011</v>
       </c>
@@ -1012,9 +973,8 @@
       <c r="D38" s="3">
         <v>2.521573138091473</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2011</v>
       </c>
@@ -1027,9 +987,8 @@
       <c r="D39" s="3">
         <v>9.3815914213431206</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2011</v>
       </c>
@@ -1042,9 +1001,8 @@
       <c r="D40" s="3">
         <v>5.6045364206035542</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2011</v>
       </c>
@@ -1057,9 +1015,8 @@
       <c r="D41" s="3">
         <v>7.3384542989497072</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2012</v>
       </c>
@@ -1073,7 +1030,7 @@
         <v>0.36054637526644029</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2012</v>
       </c>
@@ -1087,7 +1044,7 @@
         <v>1.0648703691076782</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2012</v>
       </c>
@@ -1101,7 +1058,7 @@
         <v>1.0648703691076782</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2012</v>
       </c>
@@ -1115,7 +1072,7 @@
         <v>0.89215849151134397</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2012</v>
       </c>
@@ -1129,7 +1086,7 @@
         <v>1.561109833109005</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2012</v>
       </c>
@@ -1143,7 +1100,7 @@
         <v>0.50454337278959493</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2012</v>
       </c>
@@ -1157,7 +1114,7 @@
         <v>0.32675813967297729</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2012</v>
       </c>
@@ -1171,7 +1128,7 @@
         <v>1.291276093258908</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2012</v>
       </c>
@@ -1185,7 +1142,7 @@
         <v>0.33444384579880032</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2012</v>
       </c>
@@ -1199,7 +1156,7 @@
         <v>0.5203897910417854</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2012</v>
       </c>
@@ -1212,9 +1169,8 @@
       <c r="D52" s="3">
         <v>3.843841251024041</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2012</v>
       </c>
@@ -1227,9 +1183,8 @@
       <c r="D53" s="3">
         <v>11.21454913114462</v>
       </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2012</v>
       </c>
@@ -1242,9 +1197,8 @@
       <c r="D54" s="3">
         <v>11.21454913114462</v>
       </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2012</v>
       </c>
@@ -1257,9 +1211,8 @@
       <c r="D55" s="3">
         <v>4.8259372767648241</v>
       </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2012</v>
       </c>
@@ -1272,9 +1225,8 @@
       <c r="D56" s="3">
         <v>10.174538725499003</v>
       </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2012</v>
       </c>
@@ -1287,9 +1239,8 @@
       <c r="D57" s="3">
         <v>3.7316740675311446</v>
       </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2012</v>
       </c>
@@ -1302,9 +1253,8 @@
       <c r="D58" s="3">
         <v>2.1744861071187036</v>
       </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2012</v>
       </c>
@@ -1317,9 +1267,8 @@
       <c r="D59" s="3">
         <v>9.3302245618095441</v>
       </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2012</v>
       </c>
@@ -1332,9 +1281,8 @@
       <c r="D60" s="3">
         <v>5.8951902556130289</v>
       </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2012</v>
       </c>
@@ -1347,9 +1295,8 @@
       <c r="D61" s="3">
         <v>6.0811185613885872</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>2013</v>
       </c>
@@ -1363,7 +1310,7 @@
         <v>0.38792082792857957</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2013</v>
       </c>
@@ -1377,7 +1324,7 @@
         <v>1.2126964206656483</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2013</v>
       </c>
@@ -1391,7 +1338,7 @@
         <v>1.2126964206656483</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>2013</v>
       </c>
@@ -1405,7 +1352,7 @@
         <v>0.84335225873828712</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2013</v>
       </c>
@@ -1419,7 +1366,7 @@
         <v>1.7383577330078839</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2013</v>
       </c>
@@ -1433,7 +1380,7 @@
         <v>0.33459517981142334</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2013</v>
       </c>
@@ -1447,7 +1394,7 @@
         <v>0.46632726959523996</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2013</v>
       </c>
@@ -1461,7 +1408,7 @@
         <v>1.3934416766981592</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>2013</v>
       </c>
@@ -1475,7 +1422,7 @@
         <v>0.38752223576402633</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>2013</v>
       </c>
@@ -1489,7 +1436,7 @@
         <v>0.54131000132674023</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>2013</v>
       </c>
@@ -1502,9 +1449,8 @@
       <c r="D72" s="3">
         <v>4.1955656022074805</v>
       </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>2013</v>
       </c>
@@ -1517,9 +1463,8 @@
       <c r="D73" s="3">
         <v>16.358907526393484</v>
       </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>2013</v>
       </c>
@@ -1532,9 +1477,8 @@
       <c r="D74" s="3">
         <v>16.358907526393484</v>
       </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>2013</v>
       </c>
@@ -1547,9 +1491,8 @@
       <c r="D75" s="3">
         <v>4.5898032896235366</v>
       </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>2013</v>
       </c>
@@ -1562,9 +1505,8 @@
       <c r="D76" s="3">
         <v>11.1411084645567</v>
       </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>2013</v>
       </c>
@@ -1577,9 +1519,8 @@
       <c r="D77" s="3">
         <v>2.4304469477916673</v>
       </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>2013</v>
       </c>
@@ -1592,9 +1533,8 @@
       <c r="D78" s="3">
         <v>3.0760678948174456</v>
       </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>2013</v>
       </c>
@@ -1607,9 +1547,8 @@
       <c r="D79" s="3">
         <v>9.7842277461751692</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>2013</v>
       </c>
@@ -1622,9 +1561,8 @@
       <c r="D80" s="3">
         <v>6.0758732937190159</v>
       </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>2013</v>
       </c>
@@ -1637,9 +1575,8 @@
       <c r="D81" s="3">
         <v>6.2023064722419807</v>
       </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>2014</v>
       </c>
@@ -1653,7 +1590,7 @@
         <v>0.39271726959805686</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>2014</v>
       </c>
@@ -1667,7 +1604,7 @@
         <v>1.2266834668713582</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>2014</v>
       </c>
@@ -1681,7 +1618,7 @@
         <v>1.2266834668713582</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>2014</v>
       </c>
@@ -1695,7 +1632,7 @@
         <v>0.66748393025458752</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>2014</v>
       </c>
@@ -1709,7 +1646,7 @@
         <v>1.5986923992904638</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>2014</v>
       </c>
@@ -1723,7 +1660,7 @@
         <v>0.32805202069265643</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>2014</v>
       </c>
@@ -1737,7 +1674,7 @@
         <v>0.46427346508587952</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>2014</v>
       </c>
@@ -1751,7 +1688,7 @@
         <v>1.4630578712848765</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>2014</v>
       </c>
@@ -1765,7 +1702,7 @@
         <v>0.37203346506575163</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>2014</v>
       </c>
@@ -1779,7 +1716,7 @@
         <v>0.48803387688256578</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>2014</v>
       </c>
@@ -1792,9 +1729,8 @@
       <c r="D92" s="3">
         <v>4.047768960618968</v>
       </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>2014</v>
       </c>
@@ -1807,9 +1743,8 @@
       <c r="D93" s="3">
         <v>16.655302577411675</v>
       </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>2014</v>
       </c>
@@ -1822,9 +1757,8 @@
       <c r="D94" s="3">
         <v>16.655302577411675</v>
       </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>2014</v>
       </c>
@@ -1837,9 +1771,8 @@
       <c r="D95" s="3">
         <v>3.7155174980399681</v>
       </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>2014</v>
       </c>
@@ -1852,9 +1785,8 @@
       <c r="D96" s="3">
         <v>10.475870072606336</v>
       </c>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>2014</v>
       </c>
@@ -1867,9 +1799,8 @@
       <c r="D97" s="3">
         <v>2.2721592167431641</v>
       </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>2014</v>
       </c>
@@ -1882,9 +1813,8 @@
       <c r="D98" s="3">
         <v>2.9445935881252931</v>
       </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>2014</v>
       </c>
@@ -1897,9 +1827,8 @@
       <c r="D99" s="3">
         <v>10.05110070765034</v>
       </c>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>2014</v>
       </c>
@@ -1912,9 +1841,8 @@
       <c r="D100" s="3">
         <v>5.5197462217797169</v>
       </c>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>2014</v>
       </c>
@@ -1927,9 +1855,8 @@
       <c r="D101" s="3">
         <v>5.9527571165455928</v>
       </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>2015</v>
       </c>
@@ -1943,7 +1870,7 @@
         <v>0.41739863473035771</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>2015</v>
       </c>
@@ -1957,7 +1884,7 @@
         <v>1.2741662483549268</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>2015</v>
       </c>
@@ -1971,7 +1898,7 @@
         <v>1.2741662483549268</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>2015</v>
       </c>
@@ -1985,7 +1912,7 @@
         <v>0.54775967533702119</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>2015</v>
       </c>
@@ -1999,7 +1926,7 @@
         <v>2.0893327961100083</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>2015</v>
       </c>
@@ -2013,7 +1940,7 @@
         <v>0.37573253354326347</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>2015</v>
       </c>
@@ -2027,7 +1954,7 @@
         <v>0.49414721704645931</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>2015</v>
       </c>
@@ -2041,7 +1968,7 @@
         <v>1.4792706364248576</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>2015</v>
       </c>
@@ -2055,7 +1982,7 @@
         <v>0.3381629242732293</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>2015</v>
       </c>
@@ -2069,7 +1996,7 @@
         <v>0.51358816681777331</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>2015</v>
       </c>
@@ -2082,9 +2009,8 @@
       <c r="D112" s="3">
         <v>4.0362717490371827</v>
       </c>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>2015</v>
       </c>
@@ -2097,9 +2023,8 @@
       <c r="D113" s="3">
         <v>17.348427813393663</v>
       </c>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>2015</v>
       </c>
@@ -2112,9 +2037,8 @@
       <c r="D114" s="3">
         <v>17.348427813393663</v>
       </c>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>2015</v>
       </c>
@@ -2127,9 +2051,8 @@
       <c r="D115" s="3">
         <v>3.3451400471122268</v>
       </c>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>2015</v>
       </c>
@@ -2142,9 +2065,8 @@
       <c r="D116" s="3">
         <v>12.816415885180739</v>
       </c>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>2015</v>
       </c>
@@ -2157,9 +2079,8 @@
       <c r="D117" s="3">
         <v>2.5716616769134664</v>
       </c>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>2015</v>
       </c>
@@ -2172,9 +2093,8 @@
       <c r="D118" s="3">
         <v>3.0699405385347958</v>
       </c>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>2015</v>
       </c>
@@ -2187,9 +2107,8 @@
       <c r="D119" s="3">
         <v>10.030329434128872</v>
       </c>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>2015</v>
       </c>
@@ -2202,9 +2121,8 @@
       <c r="D120" s="3">
         <v>4.2239369422657695</v>
       </c>
-      <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>2015</v>
       </c>
@@ -2217,9 +2135,8 @@
       <c r="D121" s="3">
         <v>6.2840286704210673</v>
       </c>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>2016</v>
       </c>
@@ -2233,7 +2150,7 @@
         <v>0.37757689896994551</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>2016</v>
       </c>
@@ -2247,7 +2164,7 @@
         <v>1.1351111869198602</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>2016</v>
       </c>
@@ -2261,7 +2178,7 @@
         <v>1.1351111869198602</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>2016</v>
       </c>
@@ -2275,7 +2192,7 @@
         <v>0.46250206158383361</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>2016</v>
       </c>
@@ -2289,7 +2206,7 @@
         <v>1.4963481628102571</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>2016</v>
       </c>
@@ -2303,7 +2220,7 @@
         <v>0.25429505665512742</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>2016</v>
       </c>
@@ -2317,7 +2234,7 @@
         <v>0.39911687185753569</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>2016</v>
       </c>
@@ -2331,7 +2248,7 @@
         <v>1.1761628331178211</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>2016</v>
       </c>
@@ -2345,7 +2262,7 @@
         <v>0.34543177328169944</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>2016</v>
       </c>
@@ -2359,7 +2276,7 @@
         <v>0.36886579209923753</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>2016</v>
       </c>
@@ -2372,9 +2289,8 @@
       <c r="D132" s="3">
         <v>3.6271508771401941</v>
       </c>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>2016</v>
       </c>
@@ -2387,9 +2303,8 @@
       <c r="D133" s="3">
         <v>15.774658888231292</v>
       </c>
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>2016</v>
       </c>
@@ -2402,9 +2317,8 @@
       <c r="D134" s="3">
         <v>15.774658888231292</v>
       </c>
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>2016</v>
       </c>
@@ -2417,9 +2331,8 @@
       <c r="D135" s="3">
         <v>2.7876569997980249</v>
       </c>
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>2016</v>
       </c>
@@ -2432,9 +2345,8 @@
       <c r="D136" s="3">
         <v>9.338167462432077</v>
       </c>
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>2016</v>
       </c>
@@ -2447,9 +2359,8 @@
       <c r="D137" s="3">
         <v>1.8569068768928296</v>
       </c>
-      <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>2016</v>
       </c>
@@ -2462,9 +2373,8 @@
       <c r="D138" s="3">
         <v>2.5151222607456045</v>
       </c>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>2016</v>
       </c>
@@ -2477,9 +2387,8 @@
       <c r="D139" s="3">
         <v>8.907945927358897</v>
       </c>
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>2016</v>
       </c>
@@ -2492,9 +2401,8 @@
       <c r="D140" s="3">
         <v>4.7760983831717798</v>
       </c>
-      <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>2016</v>
       </c>
@@ -2507,9 +2415,8 @@
       <c r="D141" s="3">
         <v>4.7357777415311162</v>
       </c>
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>2017</v>
       </c>
@@ -2523,7 +2430,7 @@
         <v>0.37039411226320801</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>2017</v>
       </c>
@@ -2537,7 +2444,7 @@
         <v>0.92426628271911826</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>2017</v>
       </c>
@@ -2551,7 +2458,7 @@
         <v>0.92426628271911826</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>2017</v>
       </c>
@@ -2565,7 +2472,7 @@
         <v>0.45221605351506722</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>2017</v>
       </c>
@@ -2579,7 +2486,7 @@
         <v>1.3380461604558189</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>2017</v>
       </c>
@@ -2593,7 +2500,7 @@
         <v>0.27999428751411715</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>2017</v>
       </c>
@@ -2607,7 +2514,7 @@
         <v>0.34360799384945029</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>2017</v>
       </c>
@@ -2621,7 +2528,7 @@
         <v>1.1043734917170416</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>2017</v>
       </c>
@@ -2635,7 +2542,7 @@
         <v>0.33824963298158905</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>2017</v>
       </c>
@@ -2649,7 +2556,7 @@
         <v>0.33072737327324869</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>2017</v>
       </c>
@@ -2662,9 +2569,8 @@
       <c r="D152" s="3">
         <v>3.5784496958870986</v>
       </c>
-      <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>2017</v>
       </c>
@@ -2677,9 +2583,8 @@
       <c r="D153" s="3">
         <v>15.884455567826365</v>
       </c>
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>2017</v>
       </c>
@@ -2692,9 +2597,8 @@
       <c r="D154" s="3">
         <v>15.884455567826365</v>
       </c>
-      <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>2017</v>
       </c>
@@ -2707,9 +2611,8 @@
       <c r="D155" s="3">
         <v>2.7070793140306262</v>
       </c>
-      <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>2017</v>
       </c>
@@ -2722,9 +2625,8 @@
       <c r="D156" s="3">
         <v>8.4068011597175811</v>
       </c>
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>2017</v>
       </c>
@@ -2737,9 +2639,8 @@
       <c r="D157" s="3">
         <v>1.9251387665225843</v>
       </c>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>2017</v>
       </c>
@@ -2752,9 +2653,8 @@
       <c r="D158" s="3">
         <v>2.1445759352773197</v>
       </c>
-      <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>2017</v>
       </c>
@@ -2767,9 +2667,8 @@
       <c r="D159" s="3">
         <v>7.8849281655224184</v>
       </c>
-      <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>2017</v>
       </c>
@@ -2782,9 +2681,8 @@
       <c r="D160" s="3">
         <v>4.6602313871512546</v>
       </c>
-      <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>2017</v>
       </c>
@@ -2797,9 +2695,8 @@
       <c r="D161" s="3">
         <v>4.0369780202939136</v>
       </c>
-      <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>2018</v>
       </c>
@@ -2813,7 +2710,7 @@
         <v>0.35397061067350161</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>2018</v>
       </c>
@@ -2827,7 +2724,7 @@
         <v>0.84451141967303633</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>2018</v>
       </c>
@@ -2841,7 +2738,7 @@
         <v>0.84451141967303633</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>2018</v>
       </c>
@@ -2855,7 +2752,7 @@
         <v>0.56843393493548844</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>2018</v>
       </c>
@@ -2869,7 +2766,7 @@
         <v>1.6171409259965335</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>2018</v>
       </c>
@@ -2883,7 +2780,7 @@
         <v>0.23792462706126119</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>2018</v>
       </c>
@@ -2897,7 +2794,7 @@
         <v>0.32580663577428809</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>2018</v>
       </c>
@@ -2911,7 +2808,7 @@
         <v>0.86807434476844059</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>2018</v>
       </c>
@@ -2925,7 +2822,7 @@
         <v>0.51780894789027676</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>2018</v>
       </c>
@@ -2939,7 +2836,7 @@
         <v>0.38321694131569423</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>2018</v>
       </c>
@@ -2952,9 +2849,8 @@
       <c r="D172" s="3">
         <v>3.3982573901916431</v>
       </c>
-      <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>2018</v>
       </c>
@@ -2967,9 +2863,8 @@
       <c r="D173" s="3">
         <v>15.581600900569923</v>
       </c>
-      <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>2018</v>
       </c>
@@ -2982,9 +2877,8 @@
       <c r="D174" s="3">
         <v>15.581600900569923</v>
       </c>
-      <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>2018</v>
       </c>
@@ -2997,9 +2891,8 @@
       <c r="D175" s="3">
         <v>3.1129623389801226</v>
       </c>
-      <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>2018</v>
       </c>
@@ -3012,9 +2905,8 @@
       <c r="D176" s="3">
         <v>9.2904429056591002</v>
       </c>
-      <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>2018</v>
       </c>
@@ -3027,9 +2919,8 @@
       <c r="D177" s="3">
         <v>1.8226387296347581</v>
       </c>
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>2018</v>
       </c>
@@ -3042,9 +2933,8 @@
       <c r="D178" s="3">
         <v>2.0465535038463627</v>
       </c>
-      <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>2018</v>
       </c>
@@ -3057,9 +2947,8 @@
       <c r="D179" s="3">
         <v>6.0379471023559566</v>
       </c>
-      <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>2018</v>
       </c>
@@ -3072,9 +2961,8 @@
       <c r="D180" s="3">
         <v>7.1678651184839541</v>
       </c>
-      <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>2018</v>
       </c>
@@ -3087,9 +2975,8 @@
       <c r="D181" s="3">
         <v>4.6024927386699597</v>
       </c>
-      <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>2019</v>
       </c>
@@ -3103,7 +2990,7 @@
         <v>0.31538871421181369</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>2019</v>
       </c>
@@ -3117,7 +3004,7 @@
         <v>0.71034238740162303</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>2019</v>
       </c>
@@ -3131,7 +3018,7 @@
         <v>0.71034238740162303</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>2019</v>
       </c>
@@ -3145,7 +3032,7 @@
         <v>0.69127257114114715</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>2019</v>
       </c>
@@ -3159,7 +3046,7 @@
         <v>1.3168835318419967</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>2019</v>
       </c>
@@ -3173,7 +3060,7 @@
         <v>0.14181964567280289</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>2019</v>
       </c>
@@ -3187,7 +3074,7 @@
         <v>0.25123664818668828</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>2019</v>
       </c>
@@ -3201,7 +3088,7 @@
         <v>1.058852874298174</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>2019</v>
       </c>
@@ -3215,7 +3102,7 @@
         <v>0.48970421197638137</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>2019</v>
       </c>
@@ -3229,7 +3116,7 @@
         <v>0.255689567839821</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>2019</v>
       </c>
@@ -3242,9 +3129,8 @@
       <c r="D192" s="3">
         <v>3.197360000332389</v>
       </c>
-      <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>2019</v>
       </c>
@@ -3257,9 +3143,8 @@
       <c r="D193" s="3">
         <v>12.844860493410831</v>
       </c>
-      <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>2019</v>
       </c>
@@ -3272,9 +3157,8 @@
       <c r="D194" s="3">
         <v>12.844860493410831</v>
       </c>
-      <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>2019</v>
       </c>
@@ -3287,9 +3171,8 @@
       <c r="D195" s="3">
         <v>3.6399533465257328</v>
       </c>
-      <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>2019</v>
       </c>
@@ -3302,9 +3185,8 @@
       <c r="D196" s="3">
         <v>8.2748994236473834</v>
       </c>
-      <c r="E196" s="3"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>2019</v>
       </c>
@@ -3317,9 +3199,8 @@
       <c r="D197" s="3">
         <v>1.0691923052350527</v>
       </c>
-      <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>2019</v>
       </c>
@@ -3332,9 +3213,8 @@
       <c r="D198" s="3">
         <v>1.7902889960960084</v>
       </c>
-      <c r="E198" s="3"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>2019</v>
       </c>
@@ -3347,9 +3227,8 @@
       <c r="D199" s="3">
         <v>8.0889451813565412</v>
       </c>
-      <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>2019</v>
       </c>
@@ -3362,9 +3241,8 @@
       <c r="D200" s="3">
         <v>7.6052288841572366</v>
       </c>
-      <c r="E200" s="3"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>2019</v>
       </c>
@@ -3377,9 +3255,8 @@
       <c r="D201" s="3">
         <v>3.054490200626939</v>
       </c>
-      <c r="E201" s="3"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>2020</v>
       </c>
@@ -3393,7 +3270,7 @@
         <v>0.30871283552333584</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>2020</v>
       </c>
@@ -3407,7 +3284,7 @@
         <v>0.44591452625090899</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>2020</v>
       </c>
@@ -3421,7 +3298,7 @@
         <v>0.44591452625090899</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>2020</v>
       </c>
@@ -3435,7 +3312,7 @@
         <v>0.64489449961700018</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>2020</v>
       </c>
@@ -3449,7 +3326,7 @@
         <v>1.4277156755155125</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>2020</v>
       </c>
@@ -3463,7 +3340,7 @@
         <v>0.14564705645010015</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>2020</v>
       </c>
@@ -3477,7 +3354,7 @@
         <v>0.26787772545312211</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>2020</v>
       </c>
@@ -3491,7 +3368,7 @@
         <v>1.337115525252031</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>2020</v>
       </c>
@@ -3505,7 +3382,7 @@
         <v>0.50986655299504358</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>2020</v>
       </c>
@@ -3519,7 +3396,7 @@
         <v>0.25731742088274684</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>2020</v>
       </c>
@@ -3532,9 +3409,8 @@
       <c r="D212" s="3">
         <v>3.1997827554450895</v>
       </c>
-      <c r="E212" s="3"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>2020</v>
       </c>
@@ -3547,9 +3423,8 @@
       <c r="D213" s="3">
         <v>10.236962104888077</v>
       </c>
-      <c r="E213" s="3"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>2020</v>
       </c>
@@ -3562,9 +3437,8 @@
       <c r="D214" s="3">
         <v>10.236962104888077</v>
       </c>
-      <c r="E214" s="3"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>2020</v>
       </c>
@@ -3577,9 +3451,8 @@
       <c r="D215" s="3">
         <v>3.7151392852694212</v>
       </c>
-      <c r="E215" s="3"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>2020</v>
       </c>
@@ -3592,9 +3465,8 @@
       <c r="D216" s="3">
         <v>9.0859398228002881</v>
       </c>
-      <c r="E216" s="3"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>2020</v>
       </c>
@@ -3607,9 +3479,8 @@
       <c r="D217" s="3">
         <v>1.1237951598363498</v>
       </c>
-      <c r="E217" s="3"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>2020</v>
       </c>
@@ -3622,9 +3493,8 @@
       <c r="D218" s="3">
         <v>1.9932702714212354</v>
       </c>
-      <c r="E218" s="3"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>2020</v>
       </c>
@@ -3637,9 +3507,8 @@
       <c r="D219" s="3">
         <v>9.7917801539745</v>
       </c>
-      <c r="E219" s="3"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>2020</v>
       </c>
@@ -3652,9 +3521,8 @@
       <c r="D220" s="3">
         <v>6.384376753496869</v>
       </c>
-      <c r="E220" s="3"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>2020</v>
       </c>
@@ -3667,9 +3535,8 @@
       <c r="D221" s="3">
         <v>3.2850797845697026</v>
       </c>
-      <c r="E221" s="3"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>2021</v>
       </c>
@@ -3683,7 +3550,7 @@
         <v>0.27413084784475422</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>2021</v>
       </c>
@@ -3697,7 +3564,7 @@
         <v>0.28703274932560746</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>2021</v>
       </c>

--- a/Data/t4.1.xlsx
+++ b/Data/t4.1.xlsx
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.081435350837285</v>
+        <v>1.081651989483843</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.521507146130244</v>
+        <v>1.521529267403188</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.318822223225326</v>
+        <v>0.3188274189806531</v>
       </c>
     </row>
     <row r="7">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.91337070723338</v>
+        <v>1.914021575355211</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3910782717498701</v>
+        <v>0.3910781059021874</v>
       </c>
     </row>
     <row r="12">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>20.86017007092354</v>
+        <v>20.86016676558382</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.264684386910401</v>
+        <v>4.264682599401062</v>
       </c>
     </row>
     <row r="22">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.3788602353775656</v>
+        <v>0.3788639937194783</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.267115143042472</v>
+        <v>1.267073662117346</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.2744365687539924</v>
+        <v>0.2744371811326493</v>
       </c>
     </row>
     <row r="29">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.080890914839912</v>
+        <v>1.080891113824102</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.3603187536452314</v>
+        <v>0.3603187540045438</v>
       </c>
     </row>
     <row r="32">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9.381591421343121</v>
+        <v>9.383484865144769</v>
       </c>
     </row>
     <row r="38">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3.976341571057691</v>
+        <v>3.976381370127373</v>
       </c>
     </row>
     <row r="42">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.3927172695980569</v>
+        <v>0.3927106030937288</v>
       </c>
     </row>
     <row r="92">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.3775768989699455</v>
+        <v>0.3775746148098545</v>
       </c>
     </row>
     <row r="132">
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1.104373491717042</v>
+        <v>1.104552177698261</v>
       </c>
     </row>
     <row r="148">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.9242662827191183</v>
+        <v>0.92421724712576</v>
       </c>
     </row>
     <row r="151">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.370394112263208</v>
+        <v>0.3703941124035305</v>
       </c>
     </row>
     <row r="152">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.8445114196730363</v>
+        <v>0.8444706699285944</v>
       </c>
     </row>
     <row r="171">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.3539706106735016</v>
+        <v>0.3539617466366257</v>
       </c>
     </row>
     <row r="172">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>3.398257390191643</v>
+        <v>3.397648201794643</v>
       </c>
     </row>
     <row r="182">
